--- a/parkrun-times-2.xlsx
+++ b/parkrun-times-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E2ABC-3B76-F947-8761-15C457227DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59259EA8-4753-BD42-A1DE-7C06CF21D602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{EC8E44B9-25C3-EA4B-9CD5-5C12DB7764E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE005C-6A2D-044B-A183-DFEC0717D0F6}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,6 +1131,20 @@
         <v>27.3</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>28.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
